--- a/sumdoc u1 fnl v2 u99/菲律宾物价表.xlsx
+++ b/sumdoc u1 fnl v2 u99/菲律宾物价表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17300" windowHeight="8400"/>
+    <workbookView windowWidth="21588" windowHeight="10020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.85"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>50.00</t>
     </r>
     <r>
@@ -52,6 +58,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.85"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>84.00</t>
     </r>
     <r>
@@ -81,6 +93,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.85"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>200.00</t>
     </r>
     <r>
@@ -110,6 +128,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.85"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>180.00</t>
     </r>
     <r>
@@ -139,6 +163,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.85"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>250.00</t>
     </r>
     <r>
@@ -168,6 +198,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.85"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>150.00</t>
     </r>
     <r>
@@ -197,6 +233,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.85"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>90.00</t>
     </r>
     <r>
@@ -226,6 +268,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.85"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>150.00</t>
     </r>
     <r>
@@ -255,6 +303,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.85"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>100.00</t>
     </r>
     <r>
@@ -281,6 +335,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.85"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>120.00</t>
     </r>
     <r>
@@ -310,6 +370,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.85"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>75.00</t>
     </r>
     <r>
@@ -339,6 +405,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.85"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>80.00</t>
     </r>
     <r>
@@ -368,6 +440,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.85"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>35.00</t>
     </r>
     <r>
@@ -397,6 +475,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.85"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>400.00</t>
     </r>
     <r>
@@ -426,6 +510,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.85"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>35.00</t>
     </r>
     <r>
@@ -459,10 +549,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -485,6 +575,44 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -493,11 +621,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -509,42 +658,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -553,13 +666,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -570,15 +676,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,17 +705,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -610,20 +714,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -650,31 +740,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,151 +842,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,21 +939,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -903,21 +978,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -933,6 +993,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -941,153 +1016,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1435,12 +1525,15 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C16"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="15" customHeight="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="60.4444444444444" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="87.5" spans="1:3">
+    <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1451,7 +1544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="87.5" spans="1:3">
+    <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1462,7 +1555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="52.5" spans="1:3">
+    <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1473,7 +1566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="105" spans="1:3">
+    <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -1484,7 +1577,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="122.5" spans="1:3">
+    <row r="5" customHeight="1" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1495,7 +1588,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" ht="52.5" spans="1:3">
+    <row r="6" customHeight="1" spans="1:3">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -1506,7 +1599,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" ht="52.5" spans="1:3">
+    <row r="7" customHeight="1" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1517,7 +1610,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" ht="52.5" spans="1:3">
+    <row r="8" customHeight="1" spans="1:3">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1528,7 +1621,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" ht="52.5" spans="1:3">
+    <row r="9" customHeight="1" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -1539,7 +1632,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" ht="52.5" spans="1:3">
+    <row r="10" customHeight="1" spans="1:3">
       <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
@@ -1550,7 +1643,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" ht="52.5" spans="1:3">
+    <row r="11" customHeight="1" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -1561,7 +1654,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" ht="52.5" spans="1:3">
+    <row r="12" customHeight="1" spans="1:3">
       <c r="A12" s="4" t="s">
         <v>32</v>
       </c>
@@ -1572,7 +1665,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" ht="52.5" spans="1:3">
+    <row r="13" customHeight="1" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
@@ -1583,7 +1676,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" ht="52.5" spans="1:3">
+    <row r="14" customHeight="1" spans="1:3">
       <c r="A14" s="4" t="s">
         <v>38</v>
       </c>
@@ -1594,7 +1687,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" ht="70" spans="1:3">
+    <row r="15" customHeight="1" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -1605,7 +1698,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" ht="70" spans="1:2">
+    <row r="16" customHeight="1" spans="1:2">
       <c r="A16" s="4" t="s">
         <v>44</v>
       </c>
